--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2627.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2627.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7897995247167425</v>
+        <v>1.25971245765686</v>
       </c>
       <c r="B1">
-        <v>1.575852127365279</v>
+        <v>2.348007440567017</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.522169589996338</v>
       </c>
       <c r="D1">
-        <v>1.69822788320816</v>
+        <v>2.662193059921265</v>
       </c>
       <c r="E1">
-        <v>0.8980075788536617</v>
+        <v>1.356282591819763</v>
       </c>
     </row>
   </sheetData>
